--- a/generalistes/Sondage.xlsx
+++ b/generalistes/Sondage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
   <si>
     <t>IP</t>
   </si>
@@ -140,15 +140,6 @@
     <t>Signes cut-muq</t>
   </si>
   <si>
-    <t>Tachycard</t>
-  </si>
-  <si>
-    <t>HypoTA modérée</t>
-  </si>
-  <si>
-    <t>Hyper-réactivité bronch</t>
-  </si>
-  <si>
     <t>Bradycard</t>
   </si>
   <si>
@@ -165,21 +156,6 @@
   </si>
   <si>
     <t>Traitements préventifs</t>
-  </si>
-  <si>
-    <t>Cortico p.o</t>
-  </si>
-  <si>
-    <t>Beta2 inhal.</t>
-  </si>
-  <si>
-    <t>Anti-leucotriènes</t>
-  </si>
-  <si>
-    <t>Anti H1</t>
-  </si>
-  <si>
-    <t>Adré</t>
   </si>
   <si>
     <t>Autres</t>
@@ -299,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -311,12 +287,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -331,6 +301,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -623,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BF8"/>
+  <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,23 +624,40 @@
     <col min="15" max="15" width="3.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18.42578125" style="4" customWidth="1"/>
     <col min="17" max="34" width="4.7109375" style="4" customWidth="1"/>
-    <col min="35" max="47" width="9.7109375" style="4" customWidth="1"/>
-    <col min="48" max="52" width="4.7109375" style="4" customWidth="1"/>
-    <col min="53" max="53" width="18.28515625" style="4" customWidth="1"/>
-    <col min="54" max="54" width="14.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="3.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="14.5703125" style="4" customWidth="1"/>
-    <col min="58" max="58" width="48.5703125" style="4" customWidth="1"/>
-    <col min="59" max="16384" width="11.42578125" style="4"/>
+    <col min="35" max="35" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="10.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="5" style="4" bestFit="1" customWidth="1"/>
+    <col min="50" max="51" width="9.7109375" style="4" customWidth="1"/>
+    <col min="52" max="52" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="12.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="21.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="14.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="3.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="14.5703125" style="4" customWidth="1"/>
+    <col min="60" max="60" width="48.5703125" style="4" customWidth="1"/>
+    <col min="61" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" s="2" customFormat="1" ht="90.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="10"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="12"/>
+    <row r="1" spans="1:60" s="2" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="10"/>
       <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
@@ -678,10 +676,10 @@
       <c r="K1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="10"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="12"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="10"/>
       <c r="Q1" s="2" t="s">
         <v>18</v>
       </c>
@@ -722,7 +720,7 @@
         <v>30</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AE1" s="2" t="s">
         <v>32</v>
@@ -736,68 +734,53 @@
       <c r="AH1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AI1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AJ1" s="10"/>
+      <c r="AK1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL1" s="10"/>
+      <c r="AM1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN1" s="10"/>
+      <c r="AO1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AP1" s="10"/>
+      <c r="AQ1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR1" s="10"/>
+      <c r="AS1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AT1" s="10"/>
+      <c r="AU1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AV1" s="10"/>
+      <c r="AW1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="AX1" s="10"/>
+      <c r="AY1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AM1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AZ1" s="10"/>
+      <c r="BA1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA1" s="10"/>
-      <c r="BB1" s="11"/>
-      <c r="BC1" s="11"/>
-      <c r="BD1" s="11"/>
-      <c r="BE1" s="11"/>
-      <c r="BF1" s="12"/>
+      <c r="BB1" s="10"/>
+      <c r="BD1" s="9"/>
+      <c r="BE1" s="9"/>
+      <c r="BF1" s="9"/>
+      <c r="BG1" s="9"/>
+      <c r="BH1" s="10"/>
     </row>
-    <row r="2" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:60" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -813,156 +796,172 @@
       <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
       <c r="L2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13" t="s">
+      <c r="N2" s="16"/>
+      <c r="O2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13" t="s">
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="13"/>
-      <c r="AG2" s="13"/>
-      <c r="AH2" s="13"/>
-      <c r="AI2" s="13" t="s">
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="16"/>
+      <c r="AF2" s="16"/>
+      <c r="AG2" s="16"/>
+      <c r="AH2" s="16"/>
+      <c r="AI2" s="11"/>
+      <c r="AJ2" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="AJ2" s="13"/>
-      <c r="AK2" s="13"/>
-      <c r="AL2" s="13"/>
-      <c r="AM2" s="13"/>
-      <c r="AN2" s="13"/>
-      <c r="AO2" s="13"/>
-      <c r="AP2" s="13"/>
-      <c r="AQ2" s="13"/>
-      <c r="AR2" s="13"/>
-      <c r="AS2" s="13"/>
-      <c r="AT2" s="13"/>
-      <c r="AU2" s="13"/>
-      <c r="AV2" s="13" t="s">
+      <c r="AK2" s="16"/>
+      <c r="AL2" s="16"/>
+      <c r="AM2" s="16"/>
+      <c r="AN2" s="16"/>
+      <c r="AO2" s="16"/>
+      <c r="AP2" s="16"/>
+      <c r="AQ2" s="16"/>
+      <c r="AR2" s="16"/>
+      <c r="AS2" s="16"/>
+      <c r="AT2" s="16"/>
+      <c r="AU2" s="16"/>
+      <c r="AV2" s="16"/>
+      <c r="AW2" s="16"/>
+      <c r="AX2" s="16"/>
+      <c r="AY2" s="16"/>
+      <c r="AZ2" s="16"/>
+      <c r="BA2" s="16"/>
+      <c r="BB2" s="11"/>
+      <c r="BC2" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="BD2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="BE2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AW2" s="13"/>
-      <c r="AX2" s="13"/>
-      <c r="AY2" s="13"/>
-      <c r="AZ2" s="13"/>
-      <c r="BA2" s="13"/>
-      <c r="BB2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD2" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE2" s="13"/>
-      <c r="BF2" s="3" t="s">
-        <v>56</v>
+      <c r="BF2" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="BG2" s="16"/>
+      <c r="BH2" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:58" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="9"/>
+    <row r="3" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="5"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="7"/>
       <c r="N3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="15"/>
-      <c r="AC3" s="15"/>
-      <c r="AD3" s="15"/>
-      <c r="AE3" s="15"/>
-      <c r="AF3" s="15"/>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="16"/>
-      <c r="AI3" s="14"/>
-      <c r="AJ3" s="15"/>
-      <c r="AK3" s="15"/>
-      <c r="AL3" s="15"/>
-      <c r="AM3" s="15"/>
-      <c r="AN3" s="15"/>
-      <c r="AO3" s="15"/>
-      <c r="AP3" s="15"/>
-      <c r="AQ3" s="15"/>
-      <c r="AR3" s="15"/>
-      <c r="AS3" s="15"/>
-      <c r="AT3" s="15"/>
-      <c r="AU3" s="16"/>
-      <c r="AV3" s="14"/>
-      <c r="AW3" s="15"/>
-      <c r="AX3" s="15"/>
-      <c r="AY3" s="15"/>
-      <c r="AZ3" s="16"/>
-      <c r="BA3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BE3" s="1" t="s">
-        <v>57</v>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="18"/>
+      <c r="AG3" s="18"/>
+      <c r="AH3" s="19"/>
+      <c r="AI3" s="13"/>
+      <c r="AJ3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM3" s="6"/>
+      <c r="AN3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ3" s="6"/>
+      <c r="AR3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS3" s="6"/>
+      <c r="AT3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU3" s="6"/>
+      <c r="AV3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AW3" s="6"/>
+      <c r="AX3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AY3" s="6"/>
+      <c r="AZ3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="BA3" s="7"/>
+      <c r="BB3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="BC3" s="12"/>
+      <c r="BG3" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="B4" s="5"/>
-    </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="AK8" s="6"/>
+    <row r="4" spans="1:60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="BD2:BE2"/>
+  <mergeCells count="7">
+    <mergeCell ref="BF2:BG2"/>
     <mergeCell ref="Q3:AH3"/>
-    <mergeCell ref="AI3:AU3"/>
-    <mergeCell ref="AV3:AZ3"/>
     <mergeCell ref="F2:K2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q2:AH2"/>
-    <mergeCell ref="AI2:AU2"/>
-    <mergeCell ref="AV2:BA2"/>
+    <mergeCell ref="AJ2:BA2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/generalistes/Sondage.xlsx
+++ b/generalistes/Sondage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="55">
   <si>
     <t>IP</t>
   </si>
@@ -174,6 +174,21 @@
   </si>
   <si>
     <t>Lesquels</t>
+  </si>
+  <si>
+    <t>2e cycle</t>
+  </si>
+  <si>
+    <t>Stage urgences</t>
+  </si>
+  <si>
+    <t>Autoformation</t>
+  </si>
+  <si>
+    <t>Autre</t>
+  </si>
+  <si>
+    <t>Type formation</t>
   </si>
 </sst>
 </file>
@@ -275,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -322,6 +337,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -604,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BH4"/>
+  <dimension ref="A1:BL4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,41 +642,43 @@
     <col min="4" max="4" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="11" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" style="4" customWidth="1"/>
-    <col min="15" max="15" width="3.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" style="4" customWidth="1"/>
-    <col min="17" max="34" width="4.7109375" style="4" customWidth="1"/>
-    <col min="35" max="35" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="5" style="4" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="4" customWidth="1"/>
+    <col min="16" max="16" width="17" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.85546875" style="4" customWidth="1"/>
+    <col min="19" max="19" width="3.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.42578125" style="4" customWidth="1"/>
+    <col min="21" max="38" width="4.7109375" style="4" customWidth="1"/>
     <col min="39" max="39" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="10.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="50" max="51" width="9.7109375" style="4" customWidth="1"/>
+    <col min="49" max="49" width="10.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="12.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="21.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="14.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="3.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="14.5703125" style="4" customWidth="1"/>
-    <col min="60" max="60" width="48.5703125" style="4" customWidth="1"/>
-    <col min="61" max="16384" width="11.42578125" style="4"/>
+    <col min="53" max="53" width="5" style="4" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="9.7109375" style="4" customWidth="1"/>
+    <col min="56" max="56" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="12.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="21.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="14.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="3.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="14.5703125" style="4" customWidth="1"/>
+    <col min="64" max="64" width="48.5703125" style="4" customWidth="1"/>
+    <col min="65" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" s="2" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:64" s="2" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -676,111 +702,123 @@
       <c r="K1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="2" t="s">
+      <c r="L1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AI1" s="8" t="s">
+      <c r="AM1" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="AJ1" s="10"/>
-      <c r="AK1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="AL1" s="10"/>
-      <c r="AM1" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="AN1" s="10"/>
       <c r="AO1" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP1" s="10"/>
       <c r="AQ1" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="AR1" s="10"/>
       <c r="AS1" s="8" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="AT1" s="10"/>
       <c r="AU1" s="8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="AV1" s="10"/>
       <c r="AW1" s="8" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="AX1" s="10"/>
       <c r="AY1" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AZ1" s="10"/>
       <c r="BA1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="BB1" s="10"/>
+      <c r="BC1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="BD1" s="10"/>
+      <c r="BE1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="BB1" s="10"/>
-      <c r="BD1" s="9"/>
-      <c r="BE1" s="9"/>
-      <c r="BF1" s="9"/>
-      <c r="BG1" s="9"/>
-      <c r="BH1" s="10"/>
+      <c r="BF1" s="10"/>
+      <c r="BH1" s="9"/>
+      <c r="BI1" s="9"/>
+      <c r="BJ1" s="9"/>
+      <c r="BK1" s="9"/>
+      <c r="BL1" s="10"/>
     </row>
-    <row r="2" spans="1:60" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:64" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -804,24 +842,26 @@
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
       <c r="K2" s="16"/>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="Q2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16" t="s">
+      <c r="R2" s="16"/>
+      <c r="S2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16" t="s">
+      <c r="T2" s="16"/>
+      <c r="U2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
       <c r="V2" s="16"/>
       <c r="W2" s="16"/>
       <c r="X2" s="16"/>
@@ -835,14 +875,14 @@
       <c r="AF2" s="16"/>
       <c r="AG2" s="16"/>
       <c r="AH2" s="16"/>
-      <c r="AI2" s="11"/>
-      <c r="AJ2" s="16" t="s">
-        <v>36</v>
-      </c>
+      <c r="AI2" s="16"/>
+      <c r="AJ2" s="16"/>
       <c r="AK2" s="16"/>
       <c r="AL2" s="16"/>
-      <c r="AM2" s="16"/>
-      <c r="AN2" s="16"/>
+      <c r="AM2" s="11"/>
+      <c r="AN2" s="16" t="s">
+        <v>36</v>
+      </c>
       <c r="AO2" s="16"/>
       <c r="AP2" s="16"/>
       <c r="AQ2" s="16"/>
@@ -856,42 +896,46 @@
       <c r="AY2" s="16"/>
       <c r="AZ2" s="16"/>
       <c r="BA2" s="16"/>
-      <c r="BB2" s="11"/>
-      <c r="BC2" s="14" t="s">
+      <c r="BB2" s="16"/>
+      <c r="BC2" s="16"/>
+      <c r="BD2" s="16"/>
+      <c r="BE2" s="16"/>
+      <c r="BF2" s="11"/>
+      <c r="BG2" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="BD2" s="3" t="s">
+      <c r="BH2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="BE2" s="3" t="s">
+      <c r="BI2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="BF2" s="16" t="s">
+      <c r="BJ2" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="BG2" s="16"/>
-      <c r="BH2" s="3" t="s">
+      <c r="BK2" s="16"/>
+      <c r="BL2" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:64" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F3" s="5"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="7"/>
-      <c r="N3" s="1" t="s">
+      <c r="L3" s="17"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="19"/>
+      <c r="R3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
+      <c r="U3" s="17"/>
       <c r="V3" s="18"/>
       <c r="W3" s="18"/>
       <c r="X3" s="18"/>
@@ -904,17 +948,13 @@
       <c r="AE3" s="18"/>
       <c r="AF3" s="18"/>
       <c r="AG3" s="18"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="13"/>
-      <c r="AJ3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AK3" s="6"/>
-      <c r="AL3" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AM3" s="6"/>
-      <c r="AN3" s="6" t="s">
+      <c r="AH3" s="18"/>
+      <c r="AI3" s="18"/>
+      <c r="AJ3" s="18"/>
+      <c r="AK3" s="18"/>
+      <c r="AL3" s="19"/>
+      <c r="AM3" s="13"/>
+      <c r="AN3" s="5" t="s">
         <v>44</v>
       </c>
       <c r="AO3" s="6"/>
@@ -941,27 +981,37 @@
       <c r="AZ3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="BA3" s="7"/>
+      <c r="BA3" s="6"/>
       <c r="BB3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="BC3" s="12"/>
-      <c r="BG3" s="1" t="s">
+      <c r="BC3" s="6"/>
+      <c r="BD3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="BE3" s="7"/>
+      <c r="BF3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="BG3" s="12"/>
+      <c r="BK3" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:60" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="BF2:BG2"/>
-    <mergeCell ref="Q3:AH3"/>
+  <mergeCells count="9">
+    <mergeCell ref="BJ2:BK2"/>
+    <mergeCell ref="U3:AL3"/>
     <mergeCell ref="F2:K2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:AH2"/>
-    <mergeCell ref="AJ2:BA2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:AL2"/>
+    <mergeCell ref="AN2:BE2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="L3:O3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/generalistes/Sondage.xlsx
+++ b/generalistes/Sondage.xlsx
@@ -226,7 +226,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -286,67 +286,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="45"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
+      <alignment horizontal="left" textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="45"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="45"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -628,390 +641,873 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BL4"/>
+  <dimension ref="A1:BM42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="4"/>
-    <col min="2" max="2" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="5" style="4" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="4" customWidth="1"/>
-    <col min="16" max="16" width="17" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.85546875" style="4" customWidth="1"/>
-    <col min="19" max="19" width="3.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.42578125" style="4" customWidth="1"/>
-    <col min="21" max="38" width="4.7109375" style="4" customWidth="1"/>
-    <col min="39" max="39" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="10.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="54" max="55" width="9.7109375" style="4" customWidth="1"/>
-    <col min="56" max="56" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="12.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="21.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="14.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="3.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="14.5703125" style="4" customWidth="1"/>
-    <col min="64" max="64" width="48.5703125" style="4" customWidth="1"/>
-    <col min="65" max="16384" width="11.42578125" style="4"/>
+    <col min="1" max="1" width="13.3984375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="15.19921875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.53125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.3984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="4.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="5" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="5" style="13" customWidth="1"/>
+    <col min="15" max="15" width="4.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.265625" style="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.73046875" style="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.59765625" style="13" customWidth="1"/>
+    <col min="20" max="20" width="5.73046875" style="13" customWidth="1"/>
+    <col min="21" max="21" width="45.59765625" style="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="38" width="4.73046875" style="13" customWidth="1"/>
+    <col min="39" max="39" width="7.73046875" style="13" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="6.796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.06640625" style="13" customWidth="1"/>
+    <col min="42" max="42" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.73046875" style="13" customWidth="1"/>
+    <col min="44" max="44" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="16.53125" style="13" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="17.86328125" style="13" customWidth="1"/>
+    <col min="48" max="48" width="7.73046875" style="3" customWidth="1"/>
+    <col min="49" max="49" width="12.06640625" style="13" customWidth="1"/>
+    <col min="50" max="50" width="8.1328125" style="3" customWidth="1"/>
+    <col min="51" max="51" width="27.46484375" style="13" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="9.265625" style="3" customWidth="1"/>
+    <col min="53" max="53" width="24.59765625" style="13" customWidth="1"/>
+    <col min="54" max="54" width="9.73046875" style="3" customWidth="1"/>
+    <col min="55" max="55" width="9.73046875" style="13" customWidth="1"/>
+    <col min="56" max="56" width="6.86328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="12.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="8.796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="28.59765625" style="13" customWidth="1"/>
+    <col min="60" max="60" width="19.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="12.86328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="10" style="13" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="3.73046875" style="13" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="30.265625" style="13" customWidth="1"/>
+    <col min="65" max="65" width="53.33203125" style="13" customWidth="1"/>
+    <col min="66" max="16384" width="11.3984375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="2" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="2" t="s">
+    <row r="1" spans="1:65" s="7" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="2" t="s">
+      <c r="R1" s="1"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AM1" s="8" t="s">
+      <c r="AN1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="10"/>
-      <c r="AO1" s="8" t="s">
+      <c r="AO1" s="5"/>
+      <c r="AP1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AP1" s="10"/>
-      <c r="AQ1" s="8" t="s">
+      <c r="AQ1" s="5"/>
+      <c r="AR1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AR1" s="10"/>
-      <c r="AS1" s="8" t="s">
+      <c r="AS1" s="5"/>
+      <c r="AT1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AT1" s="10"/>
-      <c r="AU1" s="8" t="s">
+      <c r="AU1" s="5"/>
+      <c r="AV1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AV1" s="10"/>
-      <c r="AW1" s="8" t="s">
+      <c r="AW1" s="5"/>
+      <c r="AX1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AX1" s="10"/>
-      <c r="AY1" s="8" t="s">
+      <c r="AY1" s="5"/>
+      <c r="AZ1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AZ1" s="10"/>
-      <c r="BA1" s="8" t="s">
+      <c r="BA1" s="5"/>
+      <c r="BB1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="BB1" s="10"/>
-      <c r="BC1" s="8" t="s">
+      <c r="BC1" s="5"/>
+      <c r="BD1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="BD1" s="10"/>
-      <c r="BE1" s="8" t="s">
+      <c r="BE1" s="5"/>
+      <c r="BF1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="BF1" s="10"/>
-      <c r="BH1" s="9"/>
-      <c r="BI1" s="9"/>
-      <c r="BJ1" s="9"/>
-      <c r="BK1" s="9"/>
-      <c r="BL1" s="10"/>
-    </row>
-    <row r="2" spans="1:64" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="BG1" s="6"/>
+      <c r="BI1" s="5"/>
+      <c r="BJ1" s="5"/>
+      <c r="BK1" s="5"/>
+      <c r="BL1" s="5"/>
+      <c r="BM1" s="6"/>
+    </row>
+    <row r="2" spans="1:65" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="20" t="s">
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="3" t="s">
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="R2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16" t="s">
+      <c r="S2" s="14"/>
+      <c r="T2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16" t="s">
+      <c r="U2" s="14"/>
+      <c r="V2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="16"/>
-      <c r="AF2" s="16"/>
-      <c r="AG2" s="16"/>
-      <c r="AH2" s="16"/>
-      <c r="AI2" s="16"/>
-      <c r="AJ2" s="16"/>
-      <c r="AK2" s="16"/>
-      <c r="AL2" s="16"/>
-      <c r="AM2" s="11"/>
-      <c r="AN2" s="16" t="s">
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="14"/>
+      <c r="AI2" s="14"/>
+      <c r="AJ2" s="14"/>
+      <c r="AK2" s="14"/>
+      <c r="AL2" s="14"/>
+      <c r="AM2" s="14"/>
+      <c r="AO2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="AO2" s="16"/>
-      <c r="AP2" s="16"/>
-      <c r="AQ2" s="16"/>
-      <c r="AR2" s="16"/>
-      <c r="AS2" s="16"/>
-      <c r="AT2" s="16"/>
-      <c r="AU2" s="16"/>
-      <c r="AV2" s="16"/>
-      <c r="AW2" s="16"/>
-      <c r="AX2" s="16"/>
-      <c r="AY2" s="16"/>
-      <c r="AZ2" s="16"/>
-      <c r="BA2" s="16"/>
-      <c r="BB2" s="16"/>
-      <c r="BC2" s="16"/>
-      <c r="BD2" s="16"/>
-      <c r="BE2" s="16"/>
-      <c r="BF2" s="11"/>
-      <c r="BG2" s="14" t="s">
+      <c r="AP2" s="14"/>
+      <c r="AQ2" s="14"/>
+      <c r="AR2" s="14"/>
+      <c r="AS2" s="14"/>
+      <c r="AT2" s="14"/>
+      <c r="AU2" s="14"/>
+      <c r="AV2" s="14"/>
+      <c r="AW2" s="14"/>
+      <c r="AX2" s="14"/>
+      <c r="AY2" s="14"/>
+      <c r="AZ2" s="14"/>
+      <c r="BA2" s="14"/>
+      <c r="BB2" s="14"/>
+      <c r="BC2" s="14"/>
+      <c r="BD2" s="14"/>
+      <c r="BE2" s="14"/>
+      <c r="BF2" s="14"/>
+      <c r="BH2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="BH2" s="3" t="s">
+      <c r="BI2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="BI2" s="3" t="s">
+      <c r="BJ2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="BJ2" s="16" t="s">
+      <c r="BK2" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="BK2" s="16"/>
-      <c r="BL2" s="3" t="s">
+      <c r="BL2" s="14"/>
+      <c r="BM2" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:64" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="19"/>
-      <c r="R3" s="1" t="s">
+    <row r="3" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="F3" s="4"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="17"/>
+      <c r="S3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="U3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="U3" s="17"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="18"/>
-      <c r="Z3" s="18"/>
-      <c r="AA3" s="18"/>
-      <c r="AB3" s="18"/>
-      <c r="AC3" s="18"/>
-      <c r="AD3" s="18"/>
-      <c r="AE3" s="18"/>
-      <c r="AF3" s="18"/>
-      <c r="AG3" s="18"/>
-      <c r="AH3" s="18"/>
-      <c r="AI3" s="18"/>
-      <c r="AJ3" s="18"/>
-      <c r="AK3" s="18"/>
-      <c r="AL3" s="19"/>
-      <c r="AM3" s="13"/>
-      <c r="AN3" s="5" t="s">
+      <c r="V3" s="15"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="16"/>
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="16"/>
+      <c r="AD3" s="16"/>
+      <c r="AE3" s="16"/>
+      <c r="AF3" s="16"/>
+      <c r="AG3" s="16"/>
+      <c r="AH3" s="16"/>
+      <c r="AI3" s="16"/>
+      <c r="AJ3" s="16"/>
+      <c r="AK3" s="16"/>
+      <c r="AL3" s="16"/>
+      <c r="AM3" s="17"/>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AO3" s="6"/>
-      <c r="AP3" s="6" t="s">
+      <c r="AP3" s="4"/>
+      <c r="AQ3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="AQ3" s="6"/>
-      <c r="AR3" s="6" t="s">
+      <c r="AR3" s="4"/>
+      <c r="AS3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="AS3" s="6"/>
-      <c r="AT3" s="6" t="s">
+      <c r="AT3" s="4"/>
+      <c r="AU3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="AU3" s="6"/>
-      <c r="AV3" s="6" t="s">
+      <c r="AV3" s="4"/>
+      <c r="AW3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="AW3" s="6"/>
-      <c r="AX3" s="6" t="s">
+      <c r="AX3" s="4"/>
+      <c r="AY3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="AY3" s="6"/>
-      <c r="AZ3" s="6" t="s">
+      <c r="AZ3" s="4"/>
+      <c r="BA3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="BA3" s="6"/>
-      <c r="BB3" s="6" t="s">
+      <c r="BB3" s="4"/>
+      <c r="BC3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="BC3" s="6"/>
-      <c r="BD3" s="6" t="s">
+      <c r="BD3" s="4"/>
+      <c r="BE3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="BE3" s="7"/>
-      <c r="BF3" s="6" t="s">
+      <c r="BG3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="BG3" s="12"/>
-      <c r="BK3" s="1" t="s">
+      <c r="BH3" s="4"/>
+      <c r="BL3" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="15"/>
-    </row>
+    <row r="4" spans="1:65" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="12"/>
+      <c r="AN4" s="3"/>
+      <c r="AP4" s="3"/>
+      <c r="AR4" s="3"/>
+      <c r="AT4" s="3"/>
+      <c r="AV4" s="3"/>
+      <c r="AX4" s="3"/>
+      <c r="AZ4" s="3"/>
+      <c r="BB4" s="3"/>
+      <c r="BD4" s="3"/>
+      <c r="BF4" s="3"/>
+    </row>
+    <row r="5" spans="1:65" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="12"/>
+      <c r="AN5" s="3"/>
+      <c r="AP5" s="3"/>
+      <c r="AR5" s="3"/>
+      <c r="AT5" s="3"/>
+      <c r="AV5" s="3"/>
+      <c r="AX5" s="3"/>
+      <c r="AZ5" s="3"/>
+      <c r="BB5" s="3"/>
+      <c r="BD5" s="3"/>
+      <c r="BF5" s="3"/>
+    </row>
+    <row r="6" spans="1:65" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="12"/>
+      <c r="AN6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AR6" s="3"/>
+      <c r="AT6" s="3"/>
+      <c r="AV6" s="3"/>
+      <c r="AX6" s="3"/>
+      <c r="AZ6" s="3"/>
+      <c r="BB6" s="3"/>
+      <c r="BD6" s="3"/>
+      <c r="BF6" s="3"/>
+    </row>
+    <row r="7" spans="1:65" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="12"/>
+      <c r="AN7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AR7" s="3"/>
+      <c r="AT7" s="3"/>
+      <c r="AV7" s="3"/>
+      <c r="AX7" s="3"/>
+      <c r="AZ7" s="3"/>
+      <c r="BB7" s="3"/>
+      <c r="BD7" s="3"/>
+      <c r="BF7" s="3"/>
+    </row>
+    <row r="8" spans="1:65" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="12"/>
+      <c r="AN8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AT8" s="3"/>
+      <c r="AV8" s="3"/>
+      <c r="AX8" s="3"/>
+      <c r="AZ8" s="3"/>
+      <c r="BB8" s="3"/>
+      <c r="BD8" s="3"/>
+      <c r="BF8" s="3"/>
+    </row>
+    <row r="9" spans="1:65" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="12"/>
+      <c r="AN9" s="3"/>
+      <c r="AP9" s="3"/>
+      <c r="AR9" s="3"/>
+      <c r="AT9" s="3"/>
+      <c r="AV9" s="3"/>
+      <c r="AX9" s="3"/>
+      <c r="AZ9" s="3"/>
+      <c r="BB9" s="3"/>
+      <c r="BD9" s="3"/>
+      <c r="BF9" s="3"/>
+    </row>
+    <row r="10" spans="1:65" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="12"/>
+      <c r="AN10" s="3"/>
+      <c r="AP10" s="3"/>
+      <c r="AR10" s="3"/>
+      <c r="AT10" s="3"/>
+      <c r="AV10" s="3"/>
+      <c r="AX10" s="3"/>
+      <c r="AZ10" s="3"/>
+      <c r="BB10" s="3"/>
+      <c r="BD10" s="3"/>
+      <c r="BF10" s="3"/>
+    </row>
+    <row r="11" spans="1:65" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="12"/>
+      <c r="AN11" s="3"/>
+      <c r="AP11" s="3"/>
+      <c r="AR11" s="3"/>
+      <c r="AT11" s="3"/>
+      <c r="AV11" s="3"/>
+      <c r="AX11" s="3"/>
+      <c r="AZ11" s="3"/>
+      <c r="BB11" s="3"/>
+      <c r="BD11" s="3"/>
+      <c r="BF11" s="3"/>
+    </row>
+    <row r="12" spans="1:65" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="12"/>
+      <c r="AN12" s="3"/>
+      <c r="AP12" s="3"/>
+      <c r="AR12" s="3"/>
+      <c r="AT12" s="3"/>
+      <c r="AV12" s="3"/>
+      <c r="AX12" s="3"/>
+      <c r="AZ12" s="3"/>
+      <c r="BB12" s="3"/>
+      <c r="BD12" s="3"/>
+      <c r="BF12" s="3"/>
+    </row>
+    <row r="13" spans="1:65" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="12"/>
+      <c r="AN13" s="3"/>
+      <c r="AP13" s="3"/>
+      <c r="AR13" s="3"/>
+      <c r="AT13" s="3"/>
+      <c r="AV13" s="3"/>
+      <c r="AX13" s="3"/>
+      <c r="AZ13" s="3"/>
+      <c r="BB13" s="3"/>
+      <c r="BD13" s="3"/>
+      <c r="BF13" s="3"/>
+    </row>
+    <row r="14" spans="1:65" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="12"/>
+      <c r="AN14" s="3"/>
+      <c r="AP14" s="3"/>
+      <c r="AR14" s="3"/>
+      <c r="AT14" s="3"/>
+      <c r="AV14" s="3"/>
+      <c r="AX14" s="3"/>
+      <c r="AZ14" s="3"/>
+      <c r="BB14" s="3"/>
+      <c r="BD14" s="3"/>
+      <c r="BF14" s="3"/>
+    </row>
+    <row r="15" spans="1:65" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="12"/>
+      <c r="AN15" s="3"/>
+      <c r="AP15" s="3"/>
+      <c r="AR15" s="3"/>
+      <c r="AT15" s="3"/>
+      <c r="AV15" s="3"/>
+      <c r="AX15" s="3"/>
+      <c r="AZ15" s="3"/>
+      <c r="BB15" s="3"/>
+      <c r="BD15" s="3"/>
+      <c r="BF15" s="3"/>
+    </row>
+    <row r="16" spans="1:65" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="12"/>
+      <c r="AN16" s="3"/>
+      <c r="AP16" s="3"/>
+      <c r="AR16" s="3"/>
+      <c r="AT16" s="3"/>
+      <c r="AV16" s="3"/>
+      <c r="AX16" s="3"/>
+      <c r="AZ16" s="3"/>
+      <c r="BB16" s="3"/>
+      <c r="BD16" s="3"/>
+      <c r="BF16" s="3"/>
+    </row>
+    <row r="17" spans="2:58" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="12"/>
+      <c r="AN17" s="3"/>
+      <c r="AP17" s="3"/>
+      <c r="AR17" s="3"/>
+      <c r="AT17" s="3"/>
+      <c r="AV17" s="3"/>
+      <c r="AX17" s="3"/>
+      <c r="AZ17" s="3"/>
+      <c r="BB17" s="3"/>
+      <c r="BD17" s="3"/>
+      <c r="BF17" s="3"/>
+    </row>
+    <row r="18" spans="2:58" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="12"/>
+      <c r="AN18" s="3"/>
+      <c r="AP18" s="3"/>
+      <c r="AR18" s="3"/>
+      <c r="AT18" s="3"/>
+      <c r="AV18" s="3"/>
+      <c r="AX18" s="3"/>
+      <c r="AZ18" s="3"/>
+      <c r="BB18" s="3"/>
+      <c r="BD18" s="3"/>
+      <c r="BF18" s="3"/>
+    </row>
+    <row r="19" spans="2:58" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="12"/>
+      <c r="AN19" s="3"/>
+      <c r="AP19" s="3"/>
+      <c r="AR19" s="3"/>
+      <c r="AT19" s="3"/>
+      <c r="AV19" s="3"/>
+      <c r="AX19" s="3"/>
+      <c r="AZ19" s="3"/>
+      <c r="BB19" s="3"/>
+      <c r="BD19" s="3"/>
+      <c r="BF19" s="3"/>
+    </row>
+    <row r="20" spans="2:58" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="12"/>
+      <c r="AN20" s="3"/>
+      <c r="AP20" s="3"/>
+      <c r="AR20" s="3"/>
+      <c r="AT20" s="3"/>
+      <c r="AV20" s="3"/>
+      <c r="AX20" s="3"/>
+      <c r="AZ20" s="3"/>
+      <c r="BB20" s="3"/>
+      <c r="BD20" s="3"/>
+      <c r="BF20" s="3"/>
+    </row>
+    <row r="21" spans="2:58" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="12"/>
+      <c r="AN21" s="3"/>
+      <c r="AP21" s="3"/>
+      <c r="AR21" s="3"/>
+      <c r="AT21" s="3"/>
+      <c r="AV21" s="3"/>
+      <c r="AX21" s="3"/>
+      <c r="AZ21" s="3"/>
+      <c r="BB21" s="3"/>
+      <c r="BD21" s="3"/>
+      <c r="BF21" s="3"/>
+    </row>
+    <row r="22" spans="2:58" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="12"/>
+      <c r="AN22" s="3"/>
+      <c r="AP22" s="3"/>
+      <c r="AR22" s="3"/>
+      <c r="AT22" s="3"/>
+      <c r="AV22" s="3"/>
+      <c r="AX22" s="3"/>
+      <c r="AZ22" s="3"/>
+      <c r="BB22" s="3"/>
+      <c r="BD22" s="3"/>
+      <c r="BF22" s="3"/>
+    </row>
+    <row r="23" spans="2:58" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="12"/>
+      <c r="AN23" s="3"/>
+      <c r="AP23" s="3"/>
+      <c r="AR23" s="3"/>
+      <c r="AT23" s="3"/>
+      <c r="AV23" s="3"/>
+      <c r="AX23" s="3"/>
+      <c r="AZ23" s="3"/>
+      <c r="BB23" s="3"/>
+      <c r="BD23" s="3"/>
+      <c r="BF23" s="3"/>
+    </row>
+    <row r="24" spans="2:58" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="12"/>
+      <c r="AN24" s="3"/>
+      <c r="AP24" s="3"/>
+      <c r="AR24" s="3"/>
+      <c r="AT24" s="3"/>
+      <c r="AV24" s="3"/>
+      <c r="AX24" s="3"/>
+      <c r="AZ24" s="3"/>
+      <c r="BB24" s="3"/>
+      <c r="BD24" s="3"/>
+      <c r="BF24" s="3"/>
+    </row>
+    <row r="25" spans="2:58" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="12"/>
+      <c r="AN25" s="3"/>
+      <c r="AP25" s="3"/>
+      <c r="AR25" s="3"/>
+      <c r="AT25" s="3"/>
+      <c r="AV25" s="3"/>
+      <c r="AX25" s="3"/>
+      <c r="AZ25" s="3"/>
+      <c r="BB25" s="3"/>
+      <c r="BD25" s="3"/>
+      <c r="BF25" s="3"/>
+    </row>
+    <row r="26" spans="2:58" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="12"/>
+      <c r="AN26" s="3"/>
+      <c r="AP26" s="3"/>
+      <c r="AR26" s="3"/>
+      <c r="AT26" s="3"/>
+      <c r="AV26" s="3"/>
+      <c r="AX26" s="3"/>
+      <c r="AZ26" s="3"/>
+      <c r="BB26" s="3"/>
+      <c r="BD26" s="3"/>
+      <c r="BF26" s="3"/>
+    </row>
+    <row r="27" spans="2:58" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="12"/>
+      <c r="AN27" s="3"/>
+      <c r="AP27" s="3"/>
+      <c r="AR27" s="3"/>
+      <c r="AT27" s="3"/>
+      <c r="AV27" s="3"/>
+      <c r="AX27" s="3"/>
+      <c r="AZ27" s="3"/>
+      <c r="BB27" s="3"/>
+      <c r="BD27" s="3"/>
+      <c r="BF27" s="3"/>
+    </row>
+    <row r="28" spans="2:58" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="12"/>
+      <c r="AN28" s="3"/>
+      <c r="AP28" s="3"/>
+      <c r="AR28" s="3"/>
+      <c r="AT28" s="3"/>
+      <c r="AV28" s="3"/>
+      <c r="AX28" s="3"/>
+      <c r="AZ28" s="3"/>
+      <c r="BB28" s="3"/>
+      <c r="BD28" s="3"/>
+      <c r="BF28" s="3"/>
+    </row>
+    <row r="29" spans="2:58" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="12"/>
+      <c r="AN29" s="3"/>
+      <c r="AP29" s="3"/>
+      <c r="AR29" s="3"/>
+      <c r="AT29" s="3"/>
+      <c r="AV29" s="3"/>
+      <c r="AX29" s="3"/>
+      <c r="AZ29" s="3"/>
+      <c r="BB29" s="3"/>
+      <c r="BD29" s="3"/>
+      <c r="BF29" s="3"/>
+    </row>
+    <row r="30" spans="2:58" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="12"/>
+      <c r="AN30" s="3"/>
+      <c r="AP30" s="3"/>
+      <c r="AR30" s="3"/>
+      <c r="AT30" s="3"/>
+      <c r="AV30" s="3"/>
+      <c r="AX30" s="3"/>
+      <c r="AZ30" s="3"/>
+      <c r="BB30" s="3"/>
+      <c r="BD30" s="3"/>
+      <c r="BF30" s="3"/>
+    </row>
+    <row r="31" spans="2:58" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="12"/>
+      <c r="AN31" s="3"/>
+      <c r="AP31" s="3"/>
+      <c r="AR31" s="3"/>
+      <c r="AT31" s="3"/>
+      <c r="AV31" s="3"/>
+      <c r="AX31" s="3"/>
+      <c r="AZ31" s="3"/>
+      <c r="BB31" s="3"/>
+      <c r="BD31" s="3"/>
+      <c r="BF31" s="3"/>
+    </row>
+    <row r="32" spans="2:58" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="12"/>
+      <c r="AN32" s="3"/>
+      <c r="AP32" s="3"/>
+      <c r="AR32" s="3"/>
+      <c r="AT32" s="3"/>
+      <c r="AV32" s="3"/>
+      <c r="AX32" s="3"/>
+      <c r="AZ32" s="3"/>
+      <c r="BB32" s="3"/>
+      <c r="BD32" s="3"/>
+      <c r="BF32" s="3"/>
+    </row>
+    <row r="33" spans="2:58" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="12"/>
+      <c r="AN33" s="3"/>
+      <c r="AP33" s="3"/>
+      <c r="AR33" s="3"/>
+      <c r="AT33" s="3"/>
+      <c r="AV33" s="3"/>
+      <c r="AX33" s="3"/>
+      <c r="AZ33" s="3"/>
+      <c r="BB33" s="3"/>
+      <c r="BD33" s="3"/>
+      <c r="BF33" s="3"/>
+    </row>
+    <row r="34" spans="2:58" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="12"/>
+      <c r="AN34" s="3"/>
+      <c r="AP34" s="3"/>
+      <c r="AR34" s="3"/>
+      <c r="AT34" s="3"/>
+      <c r="AV34" s="3"/>
+      <c r="AX34" s="3"/>
+      <c r="AZ34" s="3"/>
+      <c r="BB34" s="3"/>
+      <c r="BD34" s="3"/>
+      <c r="BF34" s="3"/>
+    </row>
+    <row r="35" spans="2:58" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="12"/>
+      <c r="AN35" s="3"/>
+      <c r="AP35" s="3"/>
+      <c r="AR35" s="3"/>
+      <c r="AT35" s="3"/>
+      <c r="AV35" s="3"/>
+      <c r="AX35" s="3"/>
+      <c r="AZ35" s="3"/>
+      <c r="BB35" s="3"/>
+      <c r="BD35" s="3"/>
+      <c r="BF35" s="3"/>
+    </row>
+    <row r="36" spans="2:58" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="12"/>
+      <c r="AN36" s="3"/>
+      <c r="AP36" s="3"/>
+      <c r="AR36" s="3"/>
+      <c r="AT36" s="3"/>
+      <c r="AV36" s="3"/>
+      <c r="AX36" s="3"/>
+      <c r="AZ36" s="3"/>
+      <c r="BB36" s="3"/>
+      <c r="BD36" s="3"/>
+      <c r="BF36" s="3"/>
+    </row>
+    <row r="37" spans="2:58" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="12"/>
+      <c r="AN37" s="3"/>
+      <c r="AP37" s="3"/>
+      <c r="AR37" s="3"/>
+      <c r="AT37" s="3"/>
+      <c r="AV37" s="3"/>
+      <c r="AX37" s="3"/>
+      <c r="AZ37" s="3"/>
+      <c r="BB37" s="3"/>
+      <c r="BD37" s="3"/>
+      <c r="BF37" s="3"/>
+    </row>
+    <row r="38" spans="2:58" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="12"/>
+      <c r="AN38" s="3"/>
+      <c r="AP38" s="3"/>
+      <c r="AR38" s="3"/>
+      <c r="AT38" s="3"/>
+      <c r="AV38" s="3"/>
+      <c r="AX38" s="3"/>
+      <c r="AZ38" s="3"/>
+      <c r="BB38" s="3"/>
+      <c r="BD38" s="3"/>
+      <c r="BF38" s="3"/>
+    </row>
+    <row r="39" spans="2:58" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="12"/>
+      <c r="AN39" s="3"/>
+      <c r="AP39" s="3"/>
+      <c r="AR39" s="3"/>
+      <c r="AT39" s="3"/>
+      <c r="AV39" s="3"/>
+      <c r="AX39" s="3"/>
+      <c r="AZ39" s="3"/>
+      <c r="BB39" s="3"/>
+      <c r="BD39" s="3"/>
+      <c r="BF39" s="3"/>
+    </row>
+    <row r="40" spans="2:58" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="12"/>
+      <c r="AN40" s="3"/>
+      <c r="AP40" s="3"/>
+      <c r="AR40" s="3"/>
+      <c r="AT40" s="3"/>
+      <c r="AV40" s="3"/>
+      <c r="AX40" s="3"/>
+      <c r="AZ40" s="3"/>
+      <c r="BB40" s="3"/>
+      <c r="BD40" s="3"/>
+      <c r="BF40" s="3"/>
+    </row>
+    <row r="42" spans="2:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="BJ2:BK2"/>
-    <mergeCell ref="U3:AL3"/>
+    <mergeCell ref="BK2:BL2"/>
+    <mergeCell ref="V3:AM3"/>
     <mergeCell ref="F2:K2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:AL2"/>
-    <mergeCell ref="AN2:BE2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:AM2"/>
+    <mergeCell ref="AO2:BF2"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="L3:P3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
